--- a/LLT/project.xlsx
+++ b/LLT/project.xlsx
@@ -615,7 +615,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -680,15 +680,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -892,34 +888,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-2.87847892084349</c:v>
+                  <c:v>-2.39873243403624</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.52376059849354</c:v>
+                  <c:v>-2.10313383207795</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.96458220183586</c:v>
+                  <c:v>-1.63715183486321</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.24624503900565</c:v>
+                  <c:v>-1.03853753250471</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.426944514819865</c:v>
+                  <c:v>-0.355787095683221</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.426944514819856</c:v>
+                  <c:v>0.355787095683213</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.24624503900567</c:v>
+                  <c:v>1.03853753250472</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.96458220183585</c:v>
+                  <c:v>1.63715183486321</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.52376059849354</c:v>
+                  <c:v>2.10313383207795</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8784789208435</c:v>
+                  <c:v>2.39873243403625</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -931,34 +927,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10.8803237184457</c:v>
+                  <c:v>15.7752725721704</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.301435303149</c:v>
+                  <c:v>25.5591412099891</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.1449196497523</c:v>
+                  <c:v>30.7465612019841</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.8785169908294</c:v>
+                  <c:v>33.3199344738347</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.7535433311971</c:v>
+                  <c:v>34.3756079957241</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.7535433311971</c:v>
+                  <c:v>34.3756079957241</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.8785169908294</c:v>
+                  <c:v>33.3199344738347</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.1449196497524</c:v>
+                  <c:v>30.7465612019842</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.301435303149</c:v>
+                  <c:v>25.5591412099891</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.8803237184456</c:v>
+                  <c:v>15.7752725721702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -973,11 +969,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="67127096"/>
-        <c:axId val="85676685"/>
+        <c:axId val="87515363"/>
+        <c:axId val="17568039"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67127096"/>
+        <c:axId val="87515363"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1054,7 +1050,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85676685"/>
+        <c:crossAx val="17568039"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1062,7 +1058,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85676685"/>
+        <c:axId val="17568039"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1109,8 +1105,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.02975743935984"/>
-              <c:y val="0.3223654957759"/>
+              <c:x val="0.0296967802438262"/>
+              <c:y val="0.322178988326848"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1147,7 +1143,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67127096"/>
+        <c:crossAx val="87515363"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1290,34 +1286,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-2.87847892084349</c:v>
+                  <c:v>-2.39873243403624</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.52376059849354</c:v>
+                  <c:v>-2.10313383207795</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.96458220183586</c:v>
+                  <c:v>-1.63715183486321</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.24624503900565</c:v>
+                  <c:v>-1.03853753250471</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.426944514819865</c:v>
+                  <c:v>-0.355787095683221</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.426944514819856</c:v>
+                  <c:v>0.355787095683213</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.24624503900567</c:v>
+                  <c:v>1.03853753250472</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.96458220183585</c:v>
+                  <c:v>1.63715183486321</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.52376059849354</c:v>
+                  <c:v>2.10313383207795</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8784789208435</c:v>
+                  <c:v>2.39873243403625</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1329,34 +1325,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0634505925770757</c:v>
+                  <c:v>0.108110724895558</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0350221598524066</c:v>
+                  <c:v>0.0669154885257946</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0235523459968525</c:v>
+                  <c:v>0.0450737201384472</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0200696363169954</c:v>
+                  <c:v>0.034238464256971</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0214285998962576</c:v>
+                  <c:v>0.0297935231121735</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0214285998962576</c:v>
+                  <c:v>0.0297935231121735</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0200696363169954</c:v>
+                  <c:v>0.0342384642569712</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0235523459968525</c:v>
+                  <c:v>0.0450737201384471</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0350221598524066</c:v>
+                  <c:v>0.0669154885257946</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0634505925770761</c:v>
+                  <c:v>0.108110724895558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1371,11 +1367,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="89453982"/>
-        <c:axId val="70785907"/>
+        <c:axId val="5606465"/>
+        <c:axId val="9683149"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89453982"/>
+        <c:axId val="5606465"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1452,7 +1448,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70785907"/>
+        <c:crossAx val="9683149"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1460,7 +1456,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70785907"/>
+        <c:axId val="9683149"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1537,7 +1533,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89453982"/>
+        <c:crossAx val="5606465"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1575,9 +1571,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
+      <xdr:colOff>365400</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>88920</xdr:rowOff>
+      <xdr:rowOff>88560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1586,7 +1582,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="464040" y="5419440"/>
-        <a:ext cx="5758200" cy="3238200"/>
+        <a:ext cx="5757840" cy="3237840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1605,9 +1601,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>31320</xdr:colOff>
+      <xdr:colOff>30960</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>154800</xdr:rowOff>
+      <xdr:rowOff>154440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1616,7 +1612,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9185400" y="4997520"/>
-        <a:ext cx="5758200" cy="3238200"/>
+        <a:ext cx="5757840" cy="3237840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1742,8 +1738,8 @@
   </sheetPr>
   <dimension ref="A1:AC40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1791,46 +1787,46 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="3" t="n">
         <f aca="false">b^2/AR</f>
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="3" t="n">
         <f aca="false">2*b/AR/(1+lambda)</f>
-        <v>1.17647058823529</v>
+        <v>1.25</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L2" s="3" t="n">
         <f aca="false">lambda*cr</f>
-        <v>0.823529411764706</v>
+        <v>1.25</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="3" t="n">
-        <v>6.8</v>
+        <v>10</v>
       </c>
       <c r="P2" s="8" t="s">
         <v>11</v>
@@ -1925,62 +1921,62 @@
       </c>
       <c r="C5" s="12" t="n">
         <f aca="false">-b/2*COS(B5)</f>
-        <v>-2.87847892084349</v>
+        <v>-2.39873243403624</v>
       </c>
       <c r="D5" s="12" t="n">
         <f aca="false">cr-2*ABS(C5)/b*(cr-ct)</f>
-        <v>0.83782600931253</v>
+        <v>1.25</v>
       </c>
       <c r="E5" s="12" t="n">
         <f aca="false">4*b/$R5/$D5*SIN(E$4*$B5) + E$4*SIN(E$4*$B5)/SIN($B5)</f>
-        <v>2.6303815087949</v>
+        <v>2.12693022736572</v>
       </c>
       <c r="F5" s="12" t="n">
         <f aca="false">4*b/$R5/$D5*SIN(F$4*$B5) + F$4*SIN(F$4*$B5)/SIN($B5)</f>
-        <v>6.9666510984574</v>
+        <v>6.00053516428038</v>
       </c>
       <c r="G5" s="12" t="n">
         <f aca="false">4*b/$R5/$D5*SIN(G$4*$B5) + G$4*SIN(G$4*$B5)/SIN($B5)</f>
-        <v>12.4210311140547</v>
+        <v>11.0705194944041</v>
       </c>
       <c r="H5" s="12" t="n">
         <f aca="false">4*b/$R5/$D5*SIN(H$4*$B5) + H$4*SIN(H$4*$B5)/SIN($B5)</f>
-        <v>18.1788545273982</v>
+        <v>16.5533576418963</v>
       </c>
       <c r="I5" s="12" t="n">
         <f aca="false">4*b/$R5/$D5*SIN(I$4*$B5) + I$4*SIN(I$4*$B5)/SIN($B5)</f>
-        <v>23.2947652867464</v>
+        <v>21.5259712258544</v>
       </c>
       <c r="J5" s="12" t="n">
         <f aca="false">4*b/$R5/$D5*SIN(J$4*$B5) + J$4*SIN(J$4*$B5)/SIN($B5)</f>
-        <v>26.8081023784125</v>
+        <v>25.0393083175205</v>
       </c>
       <c r="K5" s="12" t="n">
         <f aca="false">4*b/$R5/$D5*SIN(K$4*$B5) + K$4*SIN(K$4*$B5)/SIN($B5)</f>
-        <v>27.8649767727568</v>
+        <v>26.239479887255</v>
       </c>
       <c r="L5" s="12" t="n">
         <f aca="false">4*b/$R5/$D5*SIN(L$4*$B5) + L$4*SIN(L$4*$B5)/SIN($B5)</f>
-        <v>25.8335664423664</v>
+        <v>24.4830548227159</v>
       </c>
       <c r="M5" s="12" t="n">
         <f aca="false">4*b/$R5/$D5*SIN(M$4*$B5) + M$4*SIN(M$4*$B5)/SIN($B5)</f>
-        <v>20.3995527290603</v>
+        <v>19.4334367948832</v>
       </c>
       <c r="N5" s="12" t="n">
         <f aca="false">4*b/$R5/$D5*SIN(N$4*$B5) + N$4*SIN(N$4*$B5)/SIN($B5)</f>
-        <v>11.6303815087948</v>
+        <v>11.1269302273656</v>
       </c>
       <c r="O5" s="7"/>
       <c r="P5" s="12" t="n">
         <f aca="false">RADIANS(AoA) + 2*ABS(C5)*RADIANS(twist)/b</f>
-        <v>0.118682389135614</v>
+        <v>0.174532925199433</v>
       </c>
       <c r="Q5" s="12" t="n">
         <v>0</v>
       </c>
       <c r="R5" s="14" t="n">
-        <v>4.95</v>
+        <v>4</v>
       </c>
       <c r="T5" s="14" t="n">
         <f aca="false">SIN(E$4*$B5)</f>
@@ -2033,62 +2029,62 @@
       </c>
       <c r="C6" s="12" t="n">
         <f aca="false">-b/2*COS(B6)</f>
-        <v>-2.52376059849354</v>
+        <v>-2.10313383207795</v>
       </c>
       <c r="D6" s="12" t="n">
         <f aca="false">cr-2*ABS(C6)/b*(cr-ct)</f>
-        <v>0.879557576647818</v>
+        <v>1.25</v>
       </c>
       <c r="E6" s="12" t="n">
         <f aca="false">4*b/$R6/$D6*SIN(E$4*$B6) + E$4*SIN(E$4*$B6)/SIN($B6)</f>
-        <v>3.9802356110628</v>
+        <v>3.16256326982239</v>
       </c>
       <c r="F6" s="12" t="n">
         <f aca="false">4*b/$R6/$D6*SIN(F$4*$B6) + F$4*SIN(F$4*$B6)/SIN($B6)</f>
-        <v>8.37928160427648</v>
+        <v>7.0035421127428</v>
       </c>
       <c r="G6" s="12" t="n">
         <f aca="false">4*b/$R6/$D6*SIN(G$4*$B6) + G$4*SIN(G$4*$B6)/SIN($B6)</f>
-        <v>10.9487949193108</v>
+        <v>9.45177584553505</v>
       </c>
       <c r="H6" s="12" t="n">
         <f aca="false">4*b/$R6/$D6*SIN(H$4*$B6) + H$4*SIN(H$4*$B6)/SIN($B6)</f>
-        <v>9.75751353140556</v>
+        <v>8.61450785388021</v>
       </c>
       <c r="I6" s="12" t="n">
         <f aca="false">4*b/$R6/$D6*SIN(I$4*$B6) + I$4*SIN(I$4*$B6)/SIN($B6)</f>
-        <v>4.1585690726846</v>
+        <v>3.73247301793176</v>
       </c>
       <c r="J6" s="12" t="n">
         <f aca="false">4*b/$R6/$D6*SIN(J$4*$B6) + J$4*SIN(J$4*$B6)/SIN($B6)</f>
-        <v>-4.67967763079774</v>
+        <v>-4.25358157604491</v>
       </c>
       <c r="K6" s="12" t="n">
         <f aca="false">4*b/$R6/$D6*SIN(K$4*$B6) + K$4*SIN(K$4*$B6)/SIN($B6)</f>
-        <v>-13.9511456987529</v>
+        <v>-12.8081400212276</v>
       </c>
       <c r="L6" s="12" t="n">
         <f aca="false">4*b/$R6/$D6*SIN(L$4*$B6) + L$4*SIN(L$4*$B6)/SIN($B6)</f>
-        <v>-20.1029450493297</v>
+        <v>-18.6059259755539</v>
       </c>
       <c r="M6" s="12" t="n">
         <f aca="false">4*b/$R6/$D6*SIN(M$4*$B6) + M$4*SIN(M$4*$B6)/SIN($B6)</f>
-        <v>-20.156831063913</v>
+        <v>-18.7810915723794</v>
       </c>
       <c r="N6" s="12" t="n">
         <f aca="false">4*b/$R6/$D6*SIN(N$4*$B6) + N$4*SIN(N$4*$B6)/SIN($B6)</f>
-        <v>-12.9802356110629</v>
+        <v>-12.1625632698225</v>
       </c>
       <c r="O6" s="7"/>
       <c r="P6" s="12" t="n">
         <f aca="false">RADIANS(AoA) + 2*ABS(C6)*RADIANS(twist)/b</f>
-        <v>0.118682389135614</v>
+        <v>0.174532925199433</v>
       </c>
       <c r="Q6" s="12" t="n">
         <v>0</v>
       </c>
       <c r="R6" s="14" t="n">
-        <v>4.95</v>
+        <v>4</v>
       </c>
       <c r="T6" s="14" t="n">
         <f aca="false">SIN(E$4*$B6)</f>
@@ -2141,62 +2137,62 @@
       </c>
       <c r="C7" s="12" t="n">
         <f aca="false">-b/2*COS(B7)</f>
-        <v>-1.96458220183586</v>
+        <v>-1.63715183486321</v>
       </c>
       <c r="D7" s="12" t="n">
         <f aca="false">cr-2*ABS(C7)/b*(cr-ct)</f>
-        <v>0.945343270372252</v>
+        <v>1.25</v>
       </c>
       <c r="E7" s="12" t="n">
         <f aca="false">4*b/$R7/$D7*SIN(E$4*$B7) + E$4*SIN(E$4*$B7)/SIN($B7)</f>
-        <v>4.87609503906725</v>
+        <v>4.02299829741703</v>
       </c>
       <c r="F7" s="12" t="n">
         <f aca="false">4*b/$R7/$D7*SIN(F$4*$B7) + F$4*SIN(F$4*$B7)/SIN($B7)</f>
-        <v>7.69604782003165</v>
+        <v>6.57872870330487</v>
       </c>
       <c r="G7" s="12" t="n">
         <f aca="false">4*b/$R7/$D7*SIN(G$4*$B7) + G$4*SIN(G$4*$B7)/SIN($B7)</f>
-        <v>4.91895433219406</v>
+        <v>4.30867424018268</v>
       </c>
       <c r="H7" s="12" t="n">
         <f aca="false">4*b/$R7/$D7*SIN(H$4*$B7) + H$4*SIN(H$4*$B7)/SIN($B7)</f>
-        <v>-2.93609479724613</v>
+        <v>-2.61807261845289</v>
       </c>
       <c r="I7" s="12" t="n">
         <f aca="false">4*b/$R7/$D7*SIN(I$4*$B7) + I$4*SIN(I$4*$B7)/SIN($B7)</f>
-        <v>-10.6834066671381</v>
+        <v>-9.6566061002959</v>
       </c>
       <c r="J7" s="12" t="n">
         <f aca="false">4*b/$R7/$D7*SIN(J$4*$B7) + J$4*SIN(J$4*$B7)/SIN($B7)</f>
-        <v>-11.8870222909137</v>
+        <v>-10.8602217240715</v>
       </c>
       <c r="K7" s="12" t="n">
         <f aca="false">4*b/$R7/$D7*SIN(K$4*$B7) + K$4*SIN(K$4*$B7)/SIN($B7)</f>
-        <v>-4.05445159056151</v>
+        <v>-3.73642941176827</v>
       </c>
       <c r="L7" s="12" t="n">
         <f aca="false">4*b/$R7/$D7*SIN(L$4*$B7) + L$4*SIN(L$4*$B7)/SIN($B7)</f>
-        <v>8.49580594946121</v>
+        <v>7.88552585744983</v>
       </c>
       <c r="M7" s="12" t="n">
         <f aca="false">4*b/$R7/$D7*SIN(M$4*$B7) + M$4*SIN(M$4*$B7)/SIN($B7)</f>
-        <v>16.8640980952656</v>
+        <v>15.7467789785389</v>
       </c>
       <c r="N7" s="12" t="n">
         <f aca="false">4*b/$R7/$D7*SIN(N$4*$B7) + N$4*SIN(N$4*$B7)/SIN($B7)</f>
-        <v>13.8760950390672</v>
+        <v>13.022998297417</v>
       </c>
       <c r="O7" s="7"/>
       <c r="P7" s="12" t="n">
         <f aca="false">RADIANS(AoA) + 2*ABS(C7)*RADIANS(twist)/b</f>
-        <v>0.118682389135614</v>
+        <v>0.174532925199433</v>
       </c>
       <c r="Q7" s="12" t="n">
         <v>0</v>
       </c>
       <c r="R7" s="14" t="n">
-        <v>4.95</v>
+        <v>4</v>
       </c>
       <c r="T7" s="14" t="n">
         <f aca="false">SIN(E$4*$B7)</f>
@@ -2249,62 +2245,62 @@
       </c>
       <c r="C8" s="12" t="n">
         <f aca="false">-b/2*COS(B8)</f>
-        <v>-1.24624503900565</v>
+        <v>-1.03853753250471</v>
       </c>
       <c r="D8" s="12" t="n">
         <f aca="false">cr-2*ABS(C8)/b*(cr-ct)</f>
-        <v>1.02985352482286</v>
+        <v>1.25</v>
       </c>
       <c r="E8" s="12" t="n">
         <f aca="false">4*b/$R8/$D8*SIN(E$4*$B8) + E$4*SIN(E$4*$B8)/SIN($B8)</f>
-        <v>5.28248953940514</v>
+        <v>4.63852798141808</v>
       </c>
       <c r="F8" s="12" t="n">
         <f aca="false">4*b/$R8/$D8*SIN(F$4*$B8) + F$4*SIN(F$4*$B8)/SIN($B8)</f>
-        <v>5.21968094739237</v>
+        <v>4.68465834942455</v>
       </c>
       <c r="G8" s="12" t="n">
         <f aca="false">4*b/$R8/$D8*SIN(G$4*$B8) + G$4*SIN(G$4*$B8)/SIN($B8)</f>
-        <v>-2.25554335004235</v>
+        <v>-2.0560946310375</v>
       </c>
       <c r="H8" s="12" t="n">
         <f aca="false">4*b/$R8/$D8*SIN(H$4*$B8) + H$4*SIN(H$4*$B8)/SIN($B8)</f>
-        <v>-9.01264003478967</v>
+        <v>-8.31190945242463</v>
       </c>
       <c r="I8" s="12" t="n">
         <f aca="false">4*b/$R8/$D8*SIN(I$4*$B8) + I$4*SIN(I$4*$B8)/SIN($B8)</f>
-        <v>-5.51705828097108</v>
+        <v>-5.13431899200796</v>
       </c>
       <c r="J8" s="12" t="n">
         <f aca="false">4*b/$R8/$D8*SIN(J$4*$B8) + J$4*SIN(J$4*$B8)/SIN($B8)</f>
-        <v>6.11140942540855</v>
+        <v>5.7286701364454</v>
       </c>
       <c r="K8" s="12" t="n">
         <f aca="false">4*b/$R8/$D8*SIN(K$4*$B8) + K$4*SIN(K$4*$B8)/SIN($B8)</f>
-        <v>12.2771077984653</v>
+        <v>11.5763772161002</v>
       </c>
       <c r="L8" s="12" t="n">
         <f aca="false">4*b/$R8/$D8*SIN(L$4*$B8) + L$4*SIN(L$4*$B8)/SIN($B8)</f>
-        <v>3.80415068949478</v>
+        <v>3.60470197048995</v>
       </c>
       <c r="M8" s="12" t="n">
         <f aca="false">4*b/$R8/$D8*SIN(M$4*$B8) + M$4*SIN(M$4*$B8)/SIN($B8)</f>
-        <v>-11.0354911294191</v>
+        <v>-10.5004685314512</v>
       </c>
       <c r="N8" s="12" t="n">
         <f aca="false">4*b/$R8/$D8*SIN(N$4*$B8) + N$4*SIN(N$4*$B8)/SIN($B8)</f>
-        <v>-14.2824895394049</v>
+        <v>-13.6385279814179</v>
       </c>
       <c r="O8" s="7"/>
       <c r="P8" s="12" t="n">
         <f aca="false">RADIANS(AoA) + 2*ABS(C8)*RADIANS(twist)/b</f>
-        <v>0.118682389135614</v>
+        <v>0.174532925199433</v>
       </c>
       <c r="Q8" s="12" t="n">
         <v>0</v>
       </c>
       <c r="R8" s="14" t="n">
-        <v>4.95</v>
+        <v>4</v>
       </c>
       <c r="T8" s="14" t="n">
         <f aca="false">SIN(E$4*$B8)</f>
@@ -2357,62 +2353,62 @@
       </c>
       <c r="C9" s="12" t="n">
         <f aca="false">-b/2*COS(B9)</f>
-        <v>-0.426944514819865</v>
+        <v>-0.355787095683221</v>
       </c>
       <c r="D9" s="12" t="n">
         <f aca="false">cr-2*ABS(C9)/b*(cr-ct)</f>
-        <v>1.1262418217859</v>
+        <v>1.25</v>
       </c>
       <c r="E9" s="12" t="n">
         <f aca="false">4*b/$R9/$D9*SIN(E$4*$B9) + E$4*SIN(E$4*$B9)/SIN($B9)</f>
-        <v>5.26119344072578</v>
+        <v>4.95928576752373</v>
       </c>
       <c r="F9" s="12" t="n">
         <f aca="false">4*b/$R9/$D9*SIN(F$4*$B9) + F$4*SIN(F$4*$B9)/SIN($B9)</f>
-        <v>1.78212146382933</v>
+        <v>1.6961895804589</v>
       </c>
       <c r="G9" s="12" t="n">
         <f aca="false">4*b/$R9/$D9*SIN(G$4*$B9) + G$4*SIN(G$4*$B9)/SIN($B9)</f>
-        <v>-6.67293473213832</v>
+        <v>-6.39548582310503</v>
       </c>
       <c r="H9" s="12" t="n">
         <f aca="false">4*b/$R9/$D9*SIN(H$4*$B9) + H$4*SIN(H$4*$B9)/SIN($B9)</f>
-        <v>-4.51226674425807</v>
+        <v>-4.34736466765129</v>
       </c>
       <c r="I9" s="12" t="n">
         <f aca="false">4*b/$R9/$D9*SIN(I$4*$B9) + I$4*SIN(I$4*$B9)/SIN($B9)</f>
-        <v>7.07111677389062</v>
+        <v>6.84060388958377</v>
       </c>
       <c r="J9" s="12" t="n">
         <f aca="false">4*b/$R9/$D9*SIN(J$4*$B9) + J$4*SIN(J$4*$B9)/SIN($B9)</f>
-        <v>7.83463789232422</v>
+        <v>7.60412500801737</v>
       </c>
       <c r="K9" s="12" t="n">
         <f aca="false">4*b/$R9/$D9*SIN(K$4*$B9) + K$4*SIN(K$4*$B9)/SIN($B9)</f>
-        <v>-6.15086779262936</v>
+        <v>-5.98596571602259</v>
       </c>
       <c r="L9" s="12" t="n">
         <f aca="false">4*b/$R9/$D9*SIN(L$4*$B9) + L$4*SIN(L$4*$B9)/SIN($B9)</f>
-        <v>-11.2678644682835</v>
+        <v>-10.9904155592502</v>
       </c>
       <c r="M9" s="12" t="n">
         <f aca="false">4*b/$R9/$D9*SIN(M$4*$B9) + M$4*SIN(M$4*$B9)/SIN($B9)</f>
-        <v>3.77452919965491</v>
+        <v>3.68859731628449</v>
       </c>
       <c r="N9" s="12" t="n">
         <f aca="false">4*b/$R9/$D9*SIN(N$4*$B9) + N$4*SIN(N$4*$B9)/SIN($B9)</f>
-        <v>14.2611934407259</v>
+        <v>13.9592857675238</v>
       </c>
       <c r="O9" s="7"/>
       <c r="P9" s="12" t="n">
         <f aca="false">RADIANS(AoA) + 2*ABS(C9)*RADIANS(twist)/b</f>
-        <v>0.118682389135614</v>
+        <v>0.174532925199433</v>
       </c>
       <c r="Q9" s="12" t="n">
         <v>0</v>
       </c>
       <c r="R9" s="14" t="n">
-        <v>4.95</v>
+        <v>4</v>
       </c>
       <c r="T9" s="14" t="n">
         <f aca="false">SIN(E$4*$B9)</f>
@@ -2465,62 +2461,62 @@
       </c>
       <c r="C10" s="12" t="n">
         <f aca="false">-b/2*COS(B10)</f>
-        <v>0.426944514819856</v>
+        <v>0.355787095683213</v>
       </c>
       <c r="D10" s="12" t="n">
         <f aca="false">cr-2*ABS(C10)/b*(cr-ct)</f>
-        <v>1.1262418217859</v>
+        <v>1.25</v>
       </c>
       <c r="E10" s="12" t="n">
         <f aca="false">4*b/$R10/$D10*SIN(E$4*$B10) + E$4*SIN(E$4*$B10)/SIN($B10)</f>
-        <v>5.26119344072578</v>
+        <v>4.95928576752373</v>
       </c>
       <c r="F10" s="12" t="n">
         <f aca="false">4*b/$R10/$D10*SIN(F$4*$B10) + F$4*SIN(F$4*$B10)/SIN($B10)</f>
-        <v>-1.78212146382929</v>
+        <v>-1.69618958045886</v>
       </c>
       <c r="G10" s="12" t="n">
         <f aca="false">4*b/$R10/$D10*SIN(G$4*$B10) + G$4*SIN(G$4*$B10)/SIN($B10)</f>
-        <v>-6.67293473213835</v>
+        <v>-6.39548582310506</v>
       </c>
       <c r="H10" s="12" t="n">
         <f aca="false">4*b/$R10/$D10*SIN(H$4*$B10) + H$4*SIN(H$4*$B10)/SIN($B10)</f>
-        <v>4.51226674425797</v>
+        <v>4.3473646676512</v>
       </c>
       <c r="I10" s="12" t="n">
         <f aca="false">4*b/$R10/$D10*SIN(I$4*$B10) + I$4*SIN(I$4*$B10)/SIN($B10)</f>
-        <v>7.07111677389072</v>
+        <v>6.84060388958387</v>
       </c>
       <c r="J10" s="12" t="n">
         <f aca="false">4*b/$R10/$D10*SIN(J$4*$B10) + J$4*SIN(J$4*$B10)/SIN($B10)</f>
-        <v>-7.83463789232409</v>
+        <v>-7.60412500801724</v>
       </c>
       <c r="K10" s="12" t="n">
         <f aca="false">4*b/$R10/$D10*SIN(K$4*$B10) + K$4*SIN(K$4*$B10)/SIN($B10)</f>
-        <v>-6.15086779262958</v>
+        <v>-5.98596571602281</v>
       </c>
       <c r="L10" s="12" t="n">
         <f aca="false">4*b/$R10/$D10*SIN(L$4*$B10) + L$4*SIN(L$4*$B10)/SIN($B10)</f>
-        <v>11.2678644682833</v>
+        <v>10.99041555925</v>
       </c>
       <c r="M10" s="12" t="n">
         <f aca="false">4*b/$R10/$D10*SIN(M$4*$B10) + M$4*SIN(M$4*$B10)/SIN($B10)</f>
-        <v>3.77452919965526</v>
+        <v>3.68859731628483</v>
       </c>
       <c r="N10" s="12" t="n">
         <f aca="false">4*b/$R10/$D10*SIN(N$4*$B10) + N$4*SIN(N$4*$B10)/SIN($B10)</f>
-        <v>-14.2611934407258</v>
+        <v>-13.9592857675237</v>
       </c>
       <c r="O10" s="7"/>
       <c r="P10" s="12" t="n">
         <f aca="false">RADIANS(AoA) + 2*ABS(C10)*RADIANS(twist)/b</f>
-        <v>0.118682389135614</v>
+        <v>0.174532925199433</v>
       </c>
       <c r="Q10" s="12" t="n">
         <v>0</v>
       </c>
       <c r="R10" s="14" t="n">
-        <v>4.95</v>
+        <v>4</v>
       </c>
       <c r="T10" s="14" t="n">
         <f aca="false">SIN(E$4*$B10)</f>
@@ -2573,62 +2569,62 @@
       </c>
       <c r="C11" s="12" t="n">
         <f aca="false">-b/2*COS(B11)</f>
-        <v>1.24624503900567</v>
+        <v>1.03853753250472</v>
       </c>
       <c r="D11" s="12" t="n">
         <f aca="false">cr-2*ABS(C11)/b*(cr-ct)</f>
-        <v>1.02985352482286</v>
+        <v>1.25</v>
       </c>
       <c r="E11" s="12" t="n">
         <f aca="false">4*b/$R11/$D11*SIN(E$4*$B11) + E$4*SIN(E$4*$B11)/SIN($B11)</f>
-        <v>5.28248953940514</v>
+        <v>4.63852798141807</v>
       </c>
       <c r="F11" s="12" t="n">
         <f aca="false">4*b/$R11/$D11*SIN(F$4*$B11) + F$4*SIN(F$4*$B11)/SIN($B11)</f>
-        <v>-5.21968094739244</v>
+        <v>-4.68465834942461</v>
       </c>
       <c r="G11" s="12" t="n">
         <f aca="false">4*b/$R11/$D11*SIN(G$4*$B11) + G$4*SIN(G$4*$B11)/SIN($B11)</f>
-        <v>-2.2555433500422</v>
+        <v>-2.05609463103736</v>
       </c>
       <c r="H11" s="12" t="n">
         <f aca="false">4*b/$R11/$D11*SIN(H$4*$B11) + H$4*SIN(H$4*$B11)/SIN($B11)</f>
-        <v>9.01264003478966</v>
+        <v>8.31190945242461</v>
       </c>
       <c r="I11" s="12" t="n">
         <f aca="false">4*b/$R11/$D11*SIN(I$4*$B11) + I$4*SIN(I$4*$B11)/SIN($B11)</f>
-        <v>-5.51705828097138</v>
+        <v>-5.13431899200823</v>
       </c>
       <c r="J11" s="12" t="n">
         <f aca="false">4*b/$R11/$D11*SIN(J$4*$B11) + J$4*SIN(J$4*$B11)/SIN($B11)</f>
-        <v>-6.11140942540818</v>
+        <v>-5.72867013644505</v>
       </c>
       <c r="K11" s="12" t="n">
         <f aca="false">4*b/$R11/$D11*SIN(K$4*$B11) + K$4*SIN(K$4*$B11)/SIN($B11)</f>
-        <v>12.2771077984654</v>
+        <v>11.5763772161003</v>
       </c>
       <c r="L11" s="12" t="n">
         <f aca="false">4*b/$R11/$D11*SIN(L$4*$B11) + L$4*SIN(L$4*$B11)/SIN($B11)</f>
-        <v>-3.8041506894955</v>
+        <v>-3.60470197049062</v>
       </c>
       <c r="M11" s="12" t="n">
         <f aca="false">4*b/$R11/$D11*SIN(M$4*$B11) + M$4*SIN(M$4*$B11)/SIN($B11)</f>
-        <v>-11.0354911294185</v>
+        <v>-10.5004685314507</v>
       </c>
       <c r="N11" s="12" t="n">
         <f aca="false">4*b/$R11/$D11*SIN(N$4*$B11) + N$4*SIN(N$4*$B11)/SIN($B11)</f>
-        <v>14.2824895394054</v>
+        <v>13.6385279814183</v>
       </c>
       <c r="O11" s="7"/>
       <c r="P11" s="12" t="n">
         <f aca="false">RADIANS(AoA) + 2*ABS(C11)*RADIANS(twist)/b</f>
-        <v>0.118682389135614</v>
+        <v>0.174532925199433</v>
       </c>
       <c r="Q11" s="12" t="n">
         <v>0</v>
       </c>
       <c r="R11" s="14" t="n">
-        <v>4.95</v>
+        <v>4</v>
       </c>
       <c r="T11" s="14" t="n">
         <f aca="false">SIN(E$4*$B11)</f>
@@ -2681,62 +2677,62 @@
       </c>
       <c r="C12" s="12" t="n">
         <f aca="false">-b/2*COS(B12)</f>
-        <v>1.96458220183585</v>
+        <v>1.63715183486321</v>
       </c>
       <c r="D12" s="12" t="n">
         <f aca="false">cr-2*ABS(C12)/b*(cr-ct)</f>
-        <v>0.945343270372253</v>
+        <v>1.25</v>
       </c>
       <c r="E12" s="12" t="n">
         <f aca="false">4*b/$R12/$D12*SIN(E$4*$B12) + E$4*SIN(E$4*$B12)/SIN($B12)</f>
-        <v>4.87609503906726</v>
+        <v>4.02299829741704</v>
       </c>
       <c r="F12" s="12" t="n">
         <f aca="false">4*b/$R12/$D12*SIN(F$4*$B12) + F$4*SIN(F$4*$B12)/SIN($B12)</f>
-        <v>-7.69604782003163</v>
+        <v>-6.57872870330486</v>
       </c>
       <c r="G12" s="12" t="n">
         <f aca="false">4*b/$R12/$D12*SIN(G$4*$B12) + G$4*SIN(G$4*$B12)/SIN($B12)</f>
-        <v>4.91895433219398</v>
+        <v>4.30867424018261</v>
       </c>
       <c r="H12" s="12" t="n">
         <f aca="false">4*b/$R12/$D12*SIN(H$4*$B12) + H$4*SIN(H$4*$B12)/SIN($B12)</f>
-        <v>2.93609479724625</v>
+        <v>2.618072618453</v>
       </c>
       <c r="I12" s="12" t="n">
         <f aca="false">4*b/$R12/$D12*SIN(I$4*$B12) + I$4*SIN(I$4*$B12)/SIN($B12)</f>
-        <v>-10.6834066671382</v>
+        <v>-9.65660610029595</v>
       </c>
       <c r="J12" s="12" t="n">
         <f aca="false">4*b/$R12/$D12*SIN(J$4*$B12) + J$4*SIN(J$4*$B12)/SIN($B12)</f>
-        <v>11.8870222909136</v>
+        <v>10.8602217240714</v>
       </c>
       <c r="K12" s="12" t="n">
         <f aca="false">4*b/$R12/$D12*SIN(K$4*$B12) + K$4*SIN(K$4*$B12)/SIN($B12)</f>
-        <v>-4.05445159056119</v>
+        <v>-3.73642941176798</v>
       </c>
       <c r="L12" s="12" t="n">
         <f aca="false">4*b/$R12/$D12*SIN(L$4*$B12) + L$4*SIN(L$4*$B12)/SIN($B12)</f>
-        <v>-8.49580594946152</v>
+        <v>-7.88552585745012</v>
       </c>
       <c r="M12" s="12" t="n">
         <f aca="false">4*b/$R12/$D12*SIN(M$4*$B12) + M$4*SIN(M$4*$B12)/SIN($B12)</f>
-        <v>16.8640980952657</v>
+        <v>15.7467789785389</v>
       </c>
       <c r="N12" s="12" t="n">
         <f aca="false">4*b/$R12/$D12*SIN(N$4*$B12) + N$4*SIN(N$4*$B12)/SIN($B12)</f>
-        <v>-13.8760950390668</v>
+        <v>-13.0229982974167</v>
       </c>
       <c r="O12" s="7"/>
       <c r="P12" s="12" t="n">
         <f aca="false">RADIANS(AoA) + 2*ABS(C12)*RADIANS(twist)/b</f>
-        <v>0.118682389135614</v>
+        <v>0.174532925199433</v>
       </c>
       <c r="Q12" s="12" t="n">
         <v>0</v>
       </c>
       <c r="R12" s="14" t="n">
-        <v>4.95</v>
+        <v>4</v>
       </c>
       <c r="T12" s="14" t="n">
         <f aca="false">SIN(E$4*$B12)</f>
@@ -2789,62 +2785,62 @@
       </c>
       <c r="C13" s="12" t="n">
         <f aca="false">-b/2*COS(B13)</f>
-        <v>2.52376059849354</v>
+        <v>2.10313383207795</v>
       </c>
       <c r="D13" s="12" t="n">
         <f aca="false">cr-2*ABS(C13)/b*(cr-ct)</f>
-        <v>0.879557576647818</v>
+        <v>1.25</v>
       </c>
       <c r="E13" s="12" t="n">
         <f aca="false">4*b/$R13/$D13*SIN(E$4*$B13) + E$4*SIN(E$4*$B13)/SIN($B13)</f>
-        <v>3.9802356110628</v>
+        <v>3.16256326982239</v>
       </c>
       <c r="F13" s="12" t="n">
         <f aca="false">4*b/$R13/$D13*SIN(F$4*$B13) + F$4*SIN(F$4*$B13)/SIN($B13)</f>
-        <v>-8.37928160427648</v>
+        <v>-7.0035421127428</v>
       </c>
       <c r="G13" s="12" t="n">
         <f aca="false">4*b/$R13/$D13*SIN(G$4*$B13) + G$4*SIN(G$4*$B13)/SIN($B13)</f>
-        <v>10.9487949193108</v>
+        <v>9.45177584553505</v>
       </c>
       <c r="H13" s="12" t="n">
         <f aca="false">4*b/$R13/$D13*SIN(H$4*$B13) + H$4*SIN(H$4*$B13)/SIN($B13)</f>
-        <v>-9.75751353140555</v>
+        <v>-8.61450785388021</v>
       </c>
       <c r="I13" s="12" t="n">
         <f aca="false">4*b/$R13/$D13*SIN(I$4*$B13) + I$4*SIN(I$4*$B13)/SIN($B13)</f>
-        <v>4.15856907268459</v>
+        <v>3.73247301793175</v>
       </c>
       <c r="J13" s="12" t="n">
         <f aca="false">4*b/$R13/$D13*SIN(J$4*$B13) + J$4*SIN(J$4*$B13)/SIN($B13)</f>
-        <v>4.67967763079775</v>
+        <v>4.25358157604492</v>
       </c>
       <c r="K13" s="12" t="n">
         <f aca="false">4*b/$R13/$D13*SIN(K$4*$B13) + K$4*SIN(K$4*$B13)/SIN($B13)</f>
-        <v>-13.9511456987529</v>
+        <v>-12.8081400212276</v>
       </c>
       <c r="L13" s="12" t="n">
         <f aca="false">4*b/$R13/$D13*SIN(L$4*$B13) + L$4*SIN(L$4*$B13)/SIN($B13)</f>
-        <v>20.1029450493297</v>
+        <v>18.6059259755539</v>
       </c>
       <c r="M13" s="12" t="n">
         <f aca="false">4*b/$R13/$D13*SIN(M$4*$B13) + M$4*SIN(M$4*$B13)/SIN($B13)</f>
-        <v>-20.156831063913</v>
+        <v>-18.7810915723794</v>
       </c>
       <c r="N13" s="12" t="n">
         <f aca="false">4*b/$R13/$D13*SIN(N$4*$B13) + N$4*SIN(N$4*$B13)/SIN($B13)</f>
-        <v>12.9802356110628</v>
+        <v>12.1625632698224</v>
       </c>
       <c r="O13" s="7"/>
       <c r="P13" s="12" t="n">
         <f aca="false">RADIANS(AoA) + 2*ABS(C13)*RADIANS(twist)/b</f>
-        <v>0.118682389135614</v>
+        <v>0.174532925199433</v>
       </c>
       <c r="Q13" s="12" t="n">
         <v>0</v>
       </c>
       <c r="R13" s="14" t="n">
-        <v>4.95</v>
+        <v>4</v>
       </c>
       <c r="T13" s="14" t="n">
         <f aca="false">SIN(E$4*$B13)</f>
@@ -2897,62 +2893,62 @@
       </c>
       <c r="C14" s="12" t="n">
         <f aca="false">-b/2*COS(B14)</f>
-        <v>2.8784789208435</v>
+        <v>2.39873243403625</v>
       </c>
       <c r="D14" s="12" t="n">
         <f aca="false">cr-2*ABS(C14)/b*(cr-ct)</f>
-        <v>0.83782600931253</v>
+        <v>1.25</v>
       </c>
       <c r="E14" s="12" t="n">
         <f aca="false">4*b/$R14/$D14*SIN(E$4*$B14) + E$4*SIN(E$4*$B14)/SIN($B14)</f>
-        <v>2.63038150879488</v>
+        <v>2.1269302273657</v>
       </c>
       <c r="F14" s="12" t="n">
         <f aca="false">4*b/$R14/$D14*SIN(F$4*$B14) + F$4*SIN(F$4*$B14)/SIN($B14)</f>
-        <v>-6.96665109845737</v>
+        <v>-6.00053516428036</v>
       </c>
       <c r="G14" s="12" t="n">
         <f aca="false">4*b/$R14/$D14*SIN(G$4*$B14) + G$4*SIN(G$4*$B14)/SIN($B14)</f>
-        <v>12.4210311140546</v>
+        <v>11.0705194944041</v>
       </c>
       <c r="H14" s="12" t="n">
         <f aca="false">4*b/$R14/$D14*SIN(H$4*$B14) + H$4*SIN(H$4*$B14)/SIN($B14)</f>
-        <v>-18.1788545273982</v>
+        <v>-16.5533576418964</v>
       </c>
       <c r="I14" s="12" t="n">
         <f aca="false">4*b/$R14/$D14*SIN(I$4*$B14) + I$4*SIN(I$4*$B14)/SIN($B14)</f>
-        <v>23.2947652867465</v>
+        <v>21.5259712258546</v>
       </c>
       <c r="J14" s="12" t="n">
         <f aca="false">4*b/$R14/$D14*SIN(J$4*$B14) + J$4*SIN(J$4*$B14)/SIN($B14)</f>
-        <v>-26.8081023784129</v>
+        <v>-25.0393083175209</v>
       </c>
       <c r="K14" s="12" t="n">
         <f aca="false">4*b/$R14/$D14*SIN(K$4*$B14) + K$4*SIN(K$4*$B14)/SIN($B14)</f>
-        <v>27.8649767727575</v>
+        <v>26.2394798872556</v>
       </c>
       <c r="L14" s="12" t="n">
         <f aca="false">4*b/$R14/$D14*SIN(L$4*$B14) + L$4*SIN(L$4*$B14)/SIN($B14)</f>
-        <v>-25.8335664423674</v>
+        <v>-24.4830548227168</v>
       </c>
       <c r="M14" s="12" t="n">
         <f aca="false">4*b/$R14/$D14*SIN(M$4*$B14) + M$4*SIN(M$4*$B14)/SIN($B14)</f>
-        <v>20.3995527290615</v>
+        <v>19.4334367948845</v>
       </c>
       <c r="N14" s="12" t="n">
         <f aca="false">4*b/$R14/$D14*SIN(N$4*$B14) + N$4*SIN(N$4*$B14)/SIN($B14)</f>
-        <v>-11.6303815087964</v>
+        <v>-11.1269302273672</v>
       </c>
       <c r="O14" s="7"/>
       <c r="P14" s="12" t="n">
         <f aca="false">RADIANS(AoA) + 2*ABS(C14)*RADIANS(twist)/b</f>
-        <v>0.118682389135614</v>
+        <v>0.174532925199433</v>
       </c>
       <c r="Q14" s="12" t="n">
         <v>0</v>
       </c>
       <c r="R14" s="14" t="n">
-        <v>4.95</v>
+        <v>4</v>
       </c>
       <c r="T14" s="14" t="n">
         <f aca="false">SIN(E$4*$B14)</f>
@@ -3047,48 +3043,48 @@
       <c r="D17" s="16"/>
       <c r="E17" s="7" t="n">
         <f aca="false" t="array" ref="E17:N26">MINVERSE(E5:N14)</f>
-        <v>0.00411931527720716</v>
+        <v>0.00487360409120552</v>
       </c>
       <c r="F17" s="7" t="n">
-        <v>0.0125700539904195</v>
+        <v>0.0151527488865778</v>
       </c>
       <c r="G17" s="7" t="n">
-        <v>0.0214748495201338</v>
+        <v>0.0254806673841796</v>
       </c>
       <c r="H17" s="7" t="n">
-        <v>0.0291890027526441</v>
+        <v>0.0332358051427453</v>
       </c>
       <c r="I17" s="7" t="n">
-        <v>0.0342562663499163</v>
+        <v>0.0373115751153562</v>
       </c>
       <c r="J17" s="7" t="n">
-        <v>0.0342562663499181</v>
+        <v>0.0373115751153581</v>
       </c>
       <c r="K17" s="7" t="n">
-        <v>0.0291890027526436</v>
+        <v>0.0332358051427449</v>
       </c>
       <c r="L17" s="7" t="n">
-        <v>0.0214748495201333</v>
+        <v>0.025480667384179</v>
       </c>
       <c r="M17" s="7" t="n">
-        <v>0.0125700539904199</v>
+        <v>0.0151527488865783</v>
       </c>
       <c r="N17" s="7" t="n">
-        <v>0.00411931527720703</v>
+        <v>0.00487360409120536</v>
       </c>
       <c r="O17" s="17" t="s">
         <v>23</v>
       </c>
       <c r="P17" s="7" t="n">
         <f aca="false">P5-Q5</f>
-        <v>0.118682389135614</v>
+        <v>0.174532925199433</v>
       </c>
       <c r="Q17" s="17" t="s">
         <v>24</v>
       </c>
       <c r="R17" s="7" t="n">
         <f aca="false" t="array" ref="R17:R26">MMULT(E17:N26,alpha)</f>
-        <v>0.0241185135633392</v>
+        <v>0.0405106280449737</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3097,39 +3093,39 @@
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="7" t="n">
-        <v>0.00656073939978964</v>
+        <v>0.00757151416133611</v>
       </c>
       <c r="F18" s="7" t="n">
-        <v>0.0177662433814281</v>
+        <v>0.0209605696736579</v>
       </c>
       <c r="G18" s="7" t="n">
-        <v>0.0238193999083723</v>
+        <v>0.0278571495556188</v>
       </c>
       <c r="H18" s="7" t="n">
-        <v>0.0205769169868375</v>
+        <v>0.0233126203656549</v>
       </c>
       <c r="I18" s="7" t="n">
-        <v>0.00825144599712394</v>
+        <v>0.00901570188318206</v>
       </c>
       <c r="J18" s="7" t="n">
-        <v>-0.00825144599712417</v>
+        <v>-0.00901570188318233</v>
       </c>
       <c r="K18" s="7" t="n">
-        <v>-0.0205769169868375</v>
+        <v>-0.0233126203656549</v>
       </c>
       <c r="L18" s="7" t="n">
-        <v>-0.0238193999083716</v>
+        <v>-0.0278571495556182</v>
       </c>
       <c r="M18" s="7" t="n">
-        <v>-0.0177662433814287</v>
+        <v>-0.0209605696736585</v>
       </c>
       <c r="N18" s="7" t="n">
-        <v>-0.00656073939978947</v>
+        <v>-0.00757151416133588</v>
       </c>
       <c r="O18" s="17"/>
       <c r="P18" s="7" t="n">
         <f aca="false">P6-Q6</f>
-        <v>0.118682389135614</v>
+        <v>0.174532925199433</v>
       </c>
       <c r="Q18" s="17"/>
       <c r="R18" s="7" t="n">
@@ -3142,43 +3138,43 @@
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
       <c r="E19" s="7" t="n">
-        <v>0.00780780170574357</v>
+        <v>0.0088314582077183</v>
       </c>
       <c r="F19" s="7" t="n">
-        <v>0.0168575174672328</v>
+        <v>0.0196035528252673</v>
       </c>
       <c r="G19" s="7" t="n">
-        <v>0.0119298964105285</v>
+        <v>0.0141362051272097</v>
       </c>
       <c r="H19" s="7" t="n">
-        <v>-0.00566171815057585</v>
+        <v>-0.00547167439555675</v>
       </c>
       <c r="I19" s="7" t="n">
-        <v>-0.0220287909335674</v>
+        <v>-0.022638499003595</v>
       </c>
       <c r="J19" s="7" t="n">
-        <v>-0.022028790933568</v>
+        <v>-0.0226384990035956</v>
       </c>
       <c r="K19" s="7" t="n">
-        <v>-0.00566171815057586</v>
+        <v>-0.00547167439555682</v>
       </c>
       <c r="L19" s="7" t="n">
-        <v>0.0119298964105285</v>
+        <v>0.0141362051272096</v>
       </c>
       <c r="M19" s="7" t="n">
-        <v>0.0168575174672331</v>
+        <v>0.0196035528252677</v>
       </c>
       <c r="N19" s="7" t="n">
-        <v>0.00780780170574345</v>
+        <v>0.00883145820771813</v>
       </c>
       <c r="O19" s="17"/>
       <c r="P19" s="7" t="n">
         <f aca="false">P7-Q7</f>
-        <v>0.118682389135614</v>
+        <v>0.174532925199433</v>
       </c>
       <c r="Q19" s="17"/>
       <c r="R19" s="7" t="n">
-        <v>0.00211366368379129</v>
+        <v>0.00504785618903794</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3187,43 +3183,43 @@
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="E20" s="7" t="n">
-        <v>0.00809428662481145</v>
+        <v>0.00895256191505085</v>
       </c>
       <c r="F20" s="7" t="n">
-        <v>0.0115673508359073</v>
+        <v>0.0131950730002955</v>
       </c>
       <c r="G20" s="7" t="n">
-        <v>-0.00400848908400928</v>
+        <v>-0.00414334298365195</v>
       </c>
       <c r="H20" s="7" t="n">
-        <v>-0.0194756083770675</v>
+        <v>-0.0209445175731624</v>
       </c>
       <c r="I20" s="7" t="n">
-        <v>-0.0116771924005236</v>
+        <v>-0.0122371778019985</v>
       </c>
       <c r="J20" s="7" t="n">
-        <v>0.0116771924005238</v>
+        <v>0.0122371778019986</v>
       </c>
       <c r="K20" s="7" t="n">
-        <v>0.0194756083770677</v>
+        <v>0.0209445175731625</v>
       </c>
       <c r="L20" s="7" t="n">
-        <v>0.00400848908400887</v>
+        <v>0.00414334298365157</v>
       </c>
       <c r="M20" s="7" t="n">
-        <v>-0.0115673508359074</v>
+        <v>-0.0131950730002955</v>
       </c>
       <c r="N20" s="7" t="n">
-        <v>-0.00809428662481139</v>
+        <v>-0.00895256191505075</v>
       </c>
       <c r="O20" s="17"/>
       <c r="P20" s="7" t="n">
         <f aca="false">P8-Q8</f>
-        <v>0.118682389135614</v>
+        <v>0.174532925199433</v>
       </c>
       <c r="Q20" s="17"/>
       <c r="R20" s="7" t="n">
-        <v>-4.22838847269347E-018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3231,89 +3227,89 @@
         <v>25</v>
       </c>
       <c r="B21" s="16"/>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="18"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="7" t="n">
-        <v>0.00770734415805847</v>
+        <v>0.00836739097176988</v>
       </c>
       <c r="F21" s="7" t="n">
-        <v>0.0044406094295485</v>
+        <v>0.00496712774090915</v>
       </c>
       <c r="G21" s="7" t="n">
-        <v>-0.0135418655559473</v>
+        <v>-0.0149230811928056</v>
       </c>
       <c r="H21" s="7" t="n">
-        <v>-0.00947742749841316</v>
+        <v>-0.0104612166303715</v>
       </c>
       <c r="I21" s="7" t="n">
-        <v>0.0148536465379502</v>
+        <v>0.015134127629843</v>
       </c>
       <c r="J21" s="7" t="n">
-        <v>0.0148536465379497</v>
+        <v>0.0151341276298424</v>
       </c>
       <c r="K21" s="7" t="n">
-        <v>-0.0094774274984126</v>
+        <v>-0.0104612166303709</v>
       </c>
       <c r="L21" s="7" t="n">
-        <v>-0.0135418655559474</v>
+        <v>-0.0149230811928057</v>
       </c>
       <c r="M21" s="7" t="n">
-        <v>0.00444060942954866</v>
+        <v>0.0049671277409093</v>
       </c>
       <c r="N21" s="7" t="n">
-        <v>0.00770734415805834</v>
+        <v>0.00836739097176975</v>
       </c>
       <c r="O21" s="17"/>
       <c r="P21" s="7" t="n">
         <f aca="false">P9-Q9</f>
-        <v>0.118682389135614</v>
+        <v>0.174532925199433</v>
       </c>
       <c r="Q21" s="17"/>
       <c r="R21" s="7" t="n">
-        <v>0.000945259434962555</v>
+        <v>0.00107664073883161</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="7" t="n">
-        <v>0.00681550608542023</v>
+        <v>0.0072953158275656</v>
       </c>
       <c r="F22" s="7" t="n">
-        <v>-0.00233881961504892</v>
+        <v>-0.00259969368500831</v>
       </c>
       <c r="G22" s="7" t="n">
-        <v>-0.0125780922099508</v>
+        <v>-0.0138531133961235</v>
       </c>
       <c r="H22" s="7" t="n">
-        <v>0.00868113530722633</v>
+        <v>0.00904325562813358</v>
       </c>
       <c r="I22" s="7" t="n">
-        <v>0.013245571789774</v>
+        <v>0.0136792355392078</v>
       </c>
       <c r="J22" s="7" t="n">
-        <v>-0.0132455717897739</v>
+        <v>-0.0136792355392077</v>
       </c>
       <c r="K22" s="7" t="n">
-        <v>-0.00868113530722671</v>
+        <v>-0.00904325562813403</v>
       </c>
       <c r="L22" s="7" t="n">
-        <v>0.0125780922099511</v>
+        <v>0.013853113396124</v>
       </c>
       <c r="M22" s="7" t="n">
-        <v>0.00233881961504872</v>
+        <v>0.00259969368500812</v>
       </c>
       <c r="N22" s="7" t="n">
-        <v>-0.00681550608542013</v>
+        <v>-0.00729531582756547</v>
       </c>
       <c r="O22" s="17"/>
       <c r="P22" s="7" t="n">
         <f aca="false">P10-Q10</f>
-        <v>0.118682389135614</v>
+        <v>0.174532925199433</v>
       </c>
       <c r="Q22" s="17"/>
       <c r="R22" s="7" t="n">
@@ -3323,81 +3319,81 @@
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="7"/>
       <c r="E23" s="7" t="n">
-        <v>0.00560873411118562</v>
+        <v>0.005937917174247</v>
       </c>
       <c r="F23" s="7" t="n">
-        <v>-0.00698314214411207</v>
+        <v>-0.00764638089047835</v>
       </c>
       <c r="G23" s="7" t="n">
-        <v>-0.00370412116916581</v>
+        <v>-0.0041164895188792</v>
       </c>
       <c r="H23" s="7" t="n">
-        <v>0.0145036710874728</v>
+        <v>0.0154180943398837</v>
       </c>
       <c r="I23" s="7" t="n">
-        <v>-0.0086505854447157</v>
+        <v>-0.0087520675151136</v>
       </c>
       <c r="J23" s="7" t="n">
-        <v>-0.00865058544471539</v>
+        <v>-0.00875206751511328</v>
       </c>
       <c r="K23" s="7" t="n">
-        <v>0.0145036710874727</v>
+        <v>0.0154180943398837</v>
       </c>
       <c r="L23" s="7" t="n">
-        <v>-0.00370412116916613</v>
+        <v>-0.00411648951887958</v>
       </c>
       <c r="M23" s="7" t="n">
-        <v>-0.00698314214411186</v>
+        <v>-0.00764638089047813</v>
       </c>
       <c r="N23" s="7" t="n">
-        <v>0.00560873411118552</v>
+        <v>0.00593791717424688</v>
       </c>
       <c r="O23" s="17"/>
       <c r="P23" s="7" t="n">
         <f aca="false">P11-Q11</f>
-        <v>0.118682389135614</v>
+        <v>0.174532925199433</v>
       </c>
       <c r="Q23" s="17"/>
       <c r="R23" s="7" t="n">
-        <v>0.000183852417796968</v>
+        <v>0.000293590067822548</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="7"/>
       <c r="E24" s="7" t="n">
-        <v>0.00421821899757804</v>
+        <v>0.00442596833277322</v>
       </c>
       <c r="F24" s="7" t="n">
-        <v>-0.00865270826823515</v>
+        <v>-0.00939267796752505</v>
       </c>
       <c r="G24" s="7" t="n">
-        <v>0.00608535566285727</v>
+        <v>0.00650819939366949</v>
       </c>
       <c r="H24" s="7" t="n">
-        <v>0.00385485157836724</v>
+        <v>0.00418994186566284</v>
       </c>
       <c r="I24" s="7" t="n">
-        <v>-0.0133760042732861</v>
+        <v>-0.0136896768438276</v>
       </c>
       <c r="J24" s="7" t="n">
-        <v>0.0133760042732859</v>
+        <v>0.0136896768438274</v>
       </c>
       <c r="K24" s="7" t="n">
-        <v>-0.00385485157836701</v>
+        <v>-0.00418994186566261</v>
       </c>
       <c r="L24" s="7" t="n">
-        <v>-0.00608535566285719</v>
+        <v>-0.00650819939366942</v>
       </c>
       <c r="M24" s="7" t="n">
-        <v>0.00865270826823496</v>
+        <v>0.00939267796752488</v>
       </c>
       <c r="N24" s="7" t="n">
-        <v>-0.00421821899757797</v>
+        <v>-0.00442596833277313</v>
       </c>
       <c r="O24" s="17"/>
       <c r="P24" s="7" t="n">
         <f aca="false">P12-Q12</f>
-        <v>0.118682389135614</v>
+        <v>0.174532925199433</v>
       </c>
       <c r="Q24" s="17"/>
       <c r="R24" s="7" t="n">
@@ -3407,85 +3403,85 @@
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="7"/>
       <c r="E25" s="7" t="n">
-        <v>0.00276259304388289</v>
+        <v>0.00287860963145429</v>
       </c>
       <c r="F25" s="7" t="n">
-        <v>-0.00741730219783334</v>
+        <v>-0.00800350170831112</v>
       </c>
       <c r="G25" s="7" t="n">
-        <v>0.0104904833586551</v>
+        <v>0.0112464731015135</v>
       </c>
       <c r="H25" s="7" t="n">
-        <v>-0.00930529444390418</v>
+        <v>-0.00975076568721837</v>
       </c>
       <c r="I25" s="7" t="n">
-        <v>0.00385054524483213</v>
+        <v>0.00386620915482992</v>
       </c>
       <c r="J25" s="7" t="n">
-        <v>0.00385054524483189</v>
+        <v>0.00386620915482965</v>
       </c>
       <c r="K25" s="7" t="n">
-        <v>-0.00930529444390416</v>
+        <v>-0.00975076568721836</v>
       </c>
       <c r="L25" s="7" t="n">
-        <v>0.0104904833586552</v>
+        <v>0.0112464731015136</v>
       </c>
       <c r="M25" s="7" t="n">
-        <v>-0.00741730219783322</v>
+        <v>-0.00800350170831099</v>
       </c>
       <c r="N25" s="7" t="n">
-        <v>0.00276259304388284</v>
+        <v>0.00287860963145423</v>
       </c>
       <c r="O25" s="17"/>
       <c r="P25" s="7" t="n">
         <f aca="false">P13-Q13</f>
-        <v>0.118682389135614</v>
+        <v>0.174532925199433</v>
       </c>
       <c r="Q25" s="17"/>
       <c r="R25" s="7" t="n">
-        <v>9.04419159777736E-005</v>
+        <v>8.27371559589455E-005</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D26" s="7"/>
       <c r="E26" s="7" t="n">
-        <v>0.00132982163530325</v>
+        <v>0.00137872853595104</v>
       </c>
       <c r="F26" s="7" t="n">
-        <v>-0.00411188381113076</v>
+        <v>-0.00441643971425557</v>
       </c>
       <c r="G26" s="7" t="n">
-        <v>0.00747324025256616</v>
+        <v>0.00799503599548664</v>
       </c>
       <c r="H26" s="7" t="n">
-        <v>-0.0104568606085833</v>
+        <v>-0.0109828630198058</v>
       </c>
       <c r="I26" s="7" t="n">
-        <v>0.0124892108684852</v>
+        <v>0.0126821912313855</v>
       </c>
       <c r="J26" s="7" t="n">
-        <v>-0.012489210868485</v>
+        <v>-0.0126821912313852</v>
       </c>
       <c r="K26" s="7" t="n">
-        <v>0.0104568606085833</v>
+        <v>0.0109828630198057</v>
       </c>
       <c r="L26" s="7" t="n">
-        <v>-0.00747324025256631</v>
+        <v>-0.0079950359954868</v>
       </c>
       <c r="M26" s="7" t="n">
-        <v>0.0041118838111307</v>
+        <v>0.00441643971425552</v>
       </c>
       <c r="N26" s="7" t="n">
-        <v>-0.00132982163530323</v>
+        <v>-0.00137872853595102</v>
       </c>
       <c r="O26" s="17"/>
       <c r="P26" s="7" t="n">
         <f aca="false">P14-Q14</f>
-        <v>0.118682389135614</v>
+        <v>0.174532925199433</v>
       </c>
       <c r="Q26" s="17"/>
       <c r="R26" s="7" t="n">
-        <v>-1.73472347597681E-018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3531,31 +3527,31 @@
         <v>27</v>
       </c>
       <c r="B29" s="11"/>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="19" t="s">
+      <c r="G29" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="19" t="s">
+      <c r="H29" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="I29" s="19" t="s">
+      <c r="I29" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="J29" s="21" t="s">
+      <c r="J29" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K29" s="21" t="s">
+      <c r="K29" s="20" t="s">
         <v>36</v>
       </c>
       <c r="L29" s="7"/>
@@ -3569,39 +3565,39 @@
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="7" t="n">
         <f aca="false">R17*PI()*AR</f>
-        <v>0.454623270156554</v>
+        <v>0.509071565833592</v>
       </c>
       <c r="D30" s="1" t="n">
         <f aca="false">SUMPRODUCT(TRANSPOSE(F4:N4), (R18:R26)^2)/($R$17)^2</f>
-        <v>0.0312539880817069</v>
+        <v>0.0505165758589669</v>
       </c>
       <c r="E30" s="1" t="n">
         <f aca="false">C30^2/PI()/AR*(1+delta)</f>
-        <v>0.0113075324082572</v>
+        <v>0.0216646025395417</v>
       </c>
       <c r="F30" s="1" t="n">
         <f aca="false">AVERAGE(P17:P26)/R17 - PI()*AR/AVERAGE(A0) - 1</f>
-        <v>0.11280921956562</v>
+        <v>0.166731695409976</v>
       </c>
       <c r="G30" s="1" t="n">
         <f aca="false">1/(1+delta)</f>
-        <v>0.969693219669536</v>
+        <v>0.951912633251254</v>
       </c>
       <c r="H30" s="1" t="n">
         <f aca="false">IF(AR&lt;4, AVERAGE(A0)*COS(RADIANS(sweep))/(SQRT(1+(AVERAGE(A0)*COS(RADIANS(sweep))/PI()/AR)^2) + AVERAGE(A0)*COS(RADIANS(sweep))/PI()/AR), AVERAGE(A0)*COS(RADIANS(sweep))/(1+AVERAGE(A0)*COS(RADIANS(sweep))/PI()/AR*(1+tau)))</f>
-        <v>3.83058744829506</v>
+        <v>2.9167652192381</v>
       </c>
       <c r="I30" s="7" t="n">
         <f aca="false">v*SUMPRODUCT(TRANSPOSE(n), An, TRANSPOSE(T5:AC5))/SIN(B5)</f>
-        <v>6.02780629482219</v>
+        <v>10.270518865078</v>
       </c>
       <c r="J30" s="1" t="n">
         <f aca="false">2*b*v*SUMPRODUCT(An,TRANSPOSE(T5:AC5))</f>
-        <v>10.8803237184457</v>
+        <v>15.7752725721704</v>
       </c>
       <c r="K30" s="7" t="n">
         <f aca="false">I30/$F$1</f>
-        <v>0.0634505925770757</v>
+        <v>0.108110724895558</v>
       </c>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
@@ -3615,57 +3611,57 @@
       <c r="E31" s="1"/>
       <c r="I31" s="7" t="n">
         <f aca="false">v*SUMPRODUCT(TRANSPOSE(n), An, TRANSPOSE(T6:AC6))/SIN(B6)</f>
-        <v>3.32710518597863</v>
+        <v>6.35697140995048</v>
       </c>
       <c r="J31" s="1" t="n">
         <f aca="false">2*b*v*SUMPRODUCT(An,TRANSPOSE(T6:AC6))</f>
-        <v>17.301435303149</v>
+        <v>25.5591412099891</v>
       </c>
       <c r="K31" s="7" t="n">
         <f aca="false">I31/$F$1</f>
-        <v>0.0350221598524066</v>
+        <v>0.0669154885257946</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I32" s="7" t="n">
         <f aca="false">v*SUMPRODUCT(TRANSPOSE(n), An, TRANSPOSE(T7:AC7))/SIN(B7)</f>
-        <v>2.23747286970099</v>
+        <v>4.28200341315248</v>
       </c>
       <c r="J32" s="1" t="n">
         <f aca="false">2*b*v*SUMPRODUCT(An,TRANSPOSE(T7:AC7))</f>
-        <v>21.1449196497523</v>
+        <v>30.7465612019841</v>
       </c>
       <c r="K32" s="7" t="n">
         <f aca="false">I32/$F$1</f>
-        <v>0.0235523459968525</v>
+        <v>0.0450737201384472</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I33" s="7" t="n">
         <f aca="false">v*SUMPRODUCT(TRANSPOSE(n), An, TRANSPOSE(T8:AC8))/SIN(B8)</f>
-        <v>1.90661545011456</v>
+        <v>3.25265410441225</v>
       </c>
       <c r="J33" s="1" t="n">
         <f aca="false">2*b*v*SUMPRODUCT(An,TRANSPOSE(T8:AC8))</f>
-        <v>23.8785169908294</v>
+        <v>33.3199344738347</v>
       </c>
       <c r="K33" s="7" t="n">
         <f aca="false">I33/$F$1</f>
-        <v>0.0200696363169954</v>
+        <v>0.034238464256971</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I34" s="7" t="n">
         <f aca="false">v*SUMPRODUCT(TRANSPOSE(n), An, TRANSPOSE(T9:AC9))/SIN(B9)</f>
-        <v>2.03571699014447</v>
+        <v>2.83038469565648</v>
       </c>
       <c r="J34" s="1" t="n">
         <f aca="false">2*b*v*SUMPRODUCT(An,TRANSPOSE(T9:AC9))</f>
-        <v>25.7535433311971</v>
+        <v>34.3756079957241</v>
       </c>
       <c r="K34" s="7" t="n">
         <f aca="false">I34/$F$1</f>
-        <v>0.0214285998962576</v>
+        <v>0.0297935231121735</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3677,30 +3673,30 @@
       <c r="H35" s="1"/>
       <c r="I35" s="7" t="n">
         <f aca="false">v*SUMPRODUCT(TRANSPOSE(n), An, TRANSPOSE(T10:AC10))/SIN(B10)</f>
-        <v>2.03571699014447</v>
+        <v>2.83038469565648</v>
       </c>
       <c r="J35" s="1" t="n">
         <f aca="false">2*b*v*SUMPRODUCT(An,TRANSPOSE(T10:AC10))</f>
-        <v>25.7535433311971</v>
+        <v>34.3756079957241</v>
       </c>
       <c r="K35" s="7" t="n">
         <f aca="false">I35/$F$1</f>
-        <v>0.0214285998962576</v>
+        <v>0.0297935231121735</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="7"/>
       <c r="I36" s="7" t="n">
         <f aca="false">v*SUMPRODUCT(TRANSPOSE(n), An, TRANSPOSE(T11:AC11))/SIN(B11)</f>
-        <v>1.90661545011457</v>
+        <v>3.25265410441226</v>
       </c>
       <c r="J36" s="1" t="n">
         <f aca="false">2*b*v*SUMPRODUCT(An,TRANSPOSE(T11:AC11))</f>
-        <v>23.8785169908294</v>
+        <v>33.3199344738347</v>
       </c>
       <c r="K36" s="7" t="n">
         <f aca="false">I36/$F$1</f>
-        <v>0.0200696363169954</v>
+        <v>0.0342384642569712</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3708,30 +3704,30 @@
       <c r="C37" s="7"/>
       <c r="I37" s="7" t="n">
         <f aca="false">v*SUMPRODUCT(TRANSPOSE(n), An, TRANSPOSE(T12:AC12))/SIN(B12)</f>
-        <v>2.23747286970098</v>
+        <v>4.28200341315247</v>
       </c>
       <c r="J37" s="1" t="n">
         <f aca="false">2*b*v*SUMPRODUCT(An,TRANSPOSE(T12:AC12))</f>
-        <v>21.1449196497524</v>
+        <v>30.7465612019842</v>
       </c>
       <c r="K37" s="7" t="n">
         <f aca="false">I37/$F$1</f>
-        <v>0.0235523459968525</v>
+        <v>0.0450737201384471</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="7"/>
       <c r="I38" s="7" t="n">
         <f aca="false">v*SUMPRODUCT(TRANSPOSE(n), An, TRANSPOSE(T13:AC13))/SIN(B13)</f>
-        <v>3.32710518597863</v>
+        <v>6.35697140995048</v>
       </c>
       <c r="J38" s="1" t="n">
         <f aca="false">2*b*v*SUMPRODUCT(An,TRANSPOSE(T13:AC13))</f>
-        <v>17.301435303149</v>
+        <v>25.5591412099891</v>
       </c>
       <c r="K38" s="7" t="n">
         <f aca="false">I38/$F$1</f>
-        <v>0.0350221598524066</v>
+        <v>0.0669154885257946</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3739,15 +3735,15 @@
       <c r="D39" s="1"/>
       <c r="I39" s="7" t="n">
         <f aca="false">v*SUMPRODUCT(TRANSPOSE(n), An, TRANSPOSE(T14:AC14))/SIN(B14)</f>
-        <v>6.02780629482223</v>
+        <v>10.270518865078</v>
       </c>
       <c r="J39" s="1" t="n">
         <f aca="false">2*b*v*SUMPRODUCT(An,TRANSPOSE(T14:AC14))</f>
-        <v>10.8803237184456</v>
+        <v>15.7752725721702</v>
       </c>
       <c r="K39" s="7" t="n">
         <f aca="false">I39/$F$1</f>
-        <v>0.0634505925770761</v>
+        <v>0.108110724895558</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
